--- a/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>CMPI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,44 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +712,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +747,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +782,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,26 +836,28 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F12" s="3">
         <v>6300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>24300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +937,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,26 +988,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>28900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7200</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,8 +1019,14 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,17 +1034,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-28900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1054,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1073,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,17 +1084,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,8 +1104,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,8 +1139,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,26 +1174,32 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-28300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-7200</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1209,14 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1244,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,26 +1279,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-28300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7200</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,26 +1314,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-35000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8500</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1349,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1489,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,17 +1504,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,26 +1524,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-35000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8500</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1559,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,26 +1594,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-35000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8500</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,31 +1629,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1669,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,20 +1703,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>80300</v>
+      </c>
+      <c r="F41" s="3">
         <v>3900</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1769,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1804,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,20 +1839,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,20 +1874,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>83500</v>
+      </c>
+      <c r="F46" s="3">
         <v>5000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1909,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,8 +1944,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1763,8 +1979,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +2084,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1879,8 +2119,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,20 +2154,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>83500</v>
+      </c>
+      <c r="F54" s="3">
         <v>5000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,20 +2223,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2254,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,20 +2289,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,20 +2324,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2359,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,8 +2394,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2137,8 +2429,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,20 +2534,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,20 +2654,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>194300</v>
+      </c>
+      <c r="F70" s="3">
         <v>107000</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2353,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,20 +2724,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-129100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-106900</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,20 +2864,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-106900</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2934,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,26 +2974,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-35000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8500</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +3009,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +3028,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +3059,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,26 +3234,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-8300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-26900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3269,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3288,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3319,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3389,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2964,8 +3424,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,26 +3579,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>84200</v>
+      </c>
+      <c r="F100" s="3">
         <v>8000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>19000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>11000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3614,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,26 +3649,32 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>76400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3682,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>CMPI</t>
   </si>
@@ -668,9 +668,10 @@
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -701,13 +702,13 @@
         <v>43830</v>
       </c>
       <c r="H7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J7" s="2">
         <v>43555</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -853,16 +854,16 @@
         <v>6300</v>
       </c>
       <c r="G12" s="3">
-        <v>24300</v>
+        <v>7100</v>
       </c>
       <c r="H12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J12" s="3">
         <v>6200</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -1005,16 +1006,16 @@
         <v>7800</v>
       </c>
       <c r="G17" s="3">
-        <v>28900</v>
+        <v>8400</v>
       </c>
       <c r="H17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J17" s="3">
         <v>7200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1040,16 +1041,16 @@
         <v>-7800</v>
       </c>
       <c r="G18" s="3">
-        <v>-28900</v>
+        <v>-8400</v>
       </c>
       <c r="H18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-7200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1091,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1195,16 +1196,16 @@
         <v>-7800</v>
       </c>
       <c r="G23" s="3">
-        <v>-28300</v>
+        <v>-8000</v>
       </c>
       <c r="H23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-7200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1300,16 +1301,16 @@
         <v>-7800</v>
       </c>
       <c r="G26" s="3">
-        <v>-28300</v>
+        <v>-8000</v>
       </c>
       <c r="H26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-7200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,16 +1336,16 @@
         <v>-9600</v>
       </c>
       <c r="G27" s="3">
-        <v>-35000</v>
+        <v>-9600</v>
       </c>
       <c r="H27" s="3">
         <v>-8500</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-8500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1510,16 +1511,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>-100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1545,16 +1546,16 @@
         <v>-9600</v>
       </c>
       <c r="G33" s="3">
-        <v>-35000</v>
+        <v>-9600</v>
       </c>
       <c r="H33" s="3">
         <v>-8500</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-8500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1615,16 +1616,16 @@
         <v>-9600</v>
       </c>
       <c r="G35" s="3">
-        <v>-35000</v>
+        <v>-9600</v>
       </c>
       <c r="H35" s="3">
         <v>-8500</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-8500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1658,13 +1659,13 @@
         <v>43830</v>
       </c>
       <c r="H38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J38" s="2">
         <v>43555</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -2963,13 +2964,13 @@
         <v>43830</v>
       </c>
       <c r="H80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J80" s="2">
         <v>43555</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2995,16 +2996,16 @@
         <v>-9600</v>
       </c>
       <c r="G81" s="3">
-        <v>-35000</v>
+        <v>-9600</v>
       </c>
       <c r="H81" s="3">
         <v>-8500</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-8500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3255,16 +3256,16 @@
         <v>-8300</v>
       </c>
       <c r="G89" s="3">
-        <v>-26900</v>
+        <v>-6600</v>
       </c>
       <c r="H89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-7800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3600,16 +3601,16 @@
         <v>8000</v>
       </c>
       <c r="G100" s="3">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>11000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3670,16 +3671,16 @@
         <v>-300</v>
       </c>
       <c r="G102" s="3">
-        <v>-7900</v>
+        <v>-6600</v>
       </c>
       <c r="H102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J102" s="3">
         <v>3200</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>CMPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,69 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,8 +761,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +802,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +843,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +864,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F12" s="3">
         <v>6700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>7100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +942,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +983,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1024,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,43 +1042,51 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F17" s="3">
         <v>9800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,34 +1094,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-8300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1141,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,34 +1152,40 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1219,14 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,43 +1260,55 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-9800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1342,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1383,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-8400</v>
       </c>
       <c r="J27" s="3">
         <v>-8500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-8500</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1506,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1547,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1588,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1629,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1505,69 +1644,81 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-11000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-8400</v>
       </c>
       <c r="J33" s="3">
         <v>-8500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-8500</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1752,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-11000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-8400</v>
       </c>
       <c r="J35" s="3">
         <v>-8500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-8500</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1860,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,26 +1877,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F41" s="3">
         <v>137300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>80300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,31 +1914,37 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>46700</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>51800</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1776,8 +1955,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1996,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,26 +2037,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,26 +2078,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>102100</v>
+      </c>
+      <c r="F46" s="3">
         <v>144100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>83500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,31 +2119,37 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>31000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1951,8 +2160,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2201,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2242,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2283,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2324,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2365,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,26 +2406,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>133100</v>
+      </c>
+      <c r="F54" s="3">
         <v>144100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>83500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2447,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2468,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,26 +2485,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,8 +2522,14 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,8 +2563,14 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2305,17 +2578,17 @@
         <v>5200</v>
       </c>
       <c r="E59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,26 +2604,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F60" s="3">
         <v>8900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2645,14 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2686,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2727,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2768,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2809,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,26 +2850,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2891,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2912,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2949,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2990,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2670,17 +3005,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>194300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>107000</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2696,8 +3031,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,26 +3072,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-154200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-140100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-129100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-117800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-106900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +3113,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3154,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3195,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,26 +3236,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>125200</v>
+      </c>
+      <c r="F76" s="3">
         <v>135200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-117800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-106900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3277,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3318,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-11000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-8400</v>
       </c>
       <c r="J81" s="3">
         <v>-8500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-8500</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3426,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3463,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3504,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3545,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3586,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3627,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3668,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-11400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-8300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-7800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3730,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3767,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3808,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,31 +3849,37 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>10300</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3431,8 +3890,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3911,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3948,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3989,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4030,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,22 +4071,28 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
         <v>68400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>84200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>8000</v>
@@ -3610,19 +4101,25 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>11000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +4153,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-94300</v>
+      </c>
+      <c r="F102" s="3">
         <v>57100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>76400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>CMPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,73 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,8 +771,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E12" s="3">
         <v>10400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,49 +1070,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,40 +1124,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,31 +1186,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>100</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1218,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1225,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,49 +1306,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-9600</v>
       </c>
       <c r="I27" s="3">
         <v>-9600</v>
       </c>
       <c r="J27" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,31 +1714,31 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>-100</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1676,49 +1746,55 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-9600</v>
       </c>
       <c r="I33" s="3">
         <v>-9600</v>
       </c>
       <c r="J33" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-9600</v>
       </c>
       <c r="I35" s="3">
         <v>-9600</v>
       </c>
       <c r="J35" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1965,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E41" s="3">
         <v>39100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>137300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>80300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,20 +2007,23 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E42" s="3">
         <v>46700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>51800</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,8 +2036,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1961,8 +2051,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,29 +2139,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E45" s="3">
         <v>8200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,29 +2183,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E46" s="3">
         <v>94100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>144100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>83500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,20 +2227,23 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E47" s="3">
         <v>25600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>31000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2151,8 +2256,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2166,31 +2271,34 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2207,8 +2315,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2535,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E54" s="3">
         <v>119700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>133100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>144100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,29 +2617,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,29 +2703,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>5200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,29 +2747,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E60" s="3">
         <v>7300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,8 +2835,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3011,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3011,14 +3179,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>194300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>107000</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3249,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-173200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-154200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-140100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-129100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-117800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-106900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3425,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E76" s="3">
         <v>112400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>125200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>135200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-117800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-106900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-9600</v>
       </c>
       <c r="I81" s="3">
         <v>-9600</v>
       </c>
       <c r="J81" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,17 +4082,20 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E94" s="3">
         <v>10300</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3881,8 +4111,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>68400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>84200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>8000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>11000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-94300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>57100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>76400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>CMPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E12" s="3">
         <v>14900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,52 +1097,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="3">
         <v>19000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,43 +1154,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,34 +1220,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>100</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1221,8 +1255,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-9600</v>
       </c>
       <c r="J27" s="3">
         <v>-9600</v>
       </c>
       <c r="K27" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,34 +1784,34 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>-100</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1749,52 +1819,58 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-9600</v>
       </c>
       <c r="J33" s="3">
         <v>-9600</v>
       </c>
       <c r="K33" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="L33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-9600</v>
       </c>
       <c r="J35" s="3">
         <v>-9600</v>
       </c>
       <c r="K35" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="L35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E41" s="3">
         <v>63100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>137300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>80300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,23 +2097,26 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E42" s="3">
         <v>22200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>46700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>51800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,8 +2129,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2054,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,32 +2238,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,32 +2285,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E46" s="3">
         <v>91100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>94100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>144100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>83500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,23 +2332,26 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>10200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>31000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,8 +2364,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2274,17 +2379,20 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2300,8 +2408,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,32 +2661,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E54" s="3">
         <v>101700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>119700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>133100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>144100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>83500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,32 +2840,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,32 +2887,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,32 +3169,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3182,14 +3350,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>194300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>107000</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,32 +3423,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-188100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-173200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-154200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-140100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-129100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-117800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-106900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,32 +3611,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E76" s="3">
         <v>95000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>125200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>135200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-117800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-106900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-9600</v>
       </c>
       <c r="J81" s="3">
         <v>-9600</v>
       </c>
       <c r="K81" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="L81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,31 +4173,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,20 +4312,23 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>39400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4114,8 +4344,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>68400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>84200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>8000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>11000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>24000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-94300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>57100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>76400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>CMPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,84 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,8 +788,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +841,14 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +894,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +919,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F12" s="3">
         <v>11400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>14900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>10400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>7300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>6700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>5800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1021,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1074,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1127,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1149,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F17" s="3">
         <v>15000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>19000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>11000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1213,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-19000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-14200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-11000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1276,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,54 +1290,60 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-15000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1305,8 +1378,14 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1431,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-15000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-19000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-14100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-10900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1537,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1590,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-15000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-19000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-14100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-10900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-14100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-10900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-11400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-8400</v>
       </c>
       <c r="N27" s="3">
         <v>-8500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-8500</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1749,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1802,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1855,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1908,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,90 +1926,102 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-14100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-10900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-11400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-8400</v>
       </c>
       <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-8500</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2067,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-14100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-10900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-11400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-8400</v>
       </c>
       <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-8500</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2203,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2224,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F41" s="3">
         <v>53500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>63100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>39100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>43100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>137300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>80300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,29 +2273,35 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F42" s="3">
         <v>27400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>22200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>46700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>51800</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2132,11 +2311,11 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2147,8 +2326,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2379,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2432,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F45" s="3">
         <v>7800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2485,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F46" s="3">
         <v>88700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>91100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>94100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>102100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>144100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>83500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,29 +2538,35 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>10200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>25600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>31000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,11 +2576,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2382,8 +2591,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,14 +2606,14 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,11 +2626,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2429,8 +2644,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2697,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2750,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,31 +2803,37 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>4100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2617,8 +2856,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2909,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>78800</v>
+      </c>
+      <c r="F54" s="3">
         <v>89300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>101700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>119700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>133100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>144100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>83500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2962,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2987,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +3008,40 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +3057,14 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,38 +3110,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>5600</v>
       </c>
       <c r="H59" s="3">
         <v>5200</v>
       </c>
       <c r="I59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3163,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3216,14 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3269,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3322,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3375,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3428,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3481,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F66" s="3">
         <v>7800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3534,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3559,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3608,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3661,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3353,17 +3688,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>194300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>107000</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3714,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3767,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-217300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-201500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-188100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-173200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-154200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-140100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-129100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-117800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-106900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3820,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3873,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3926,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3979,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="F76" s="3">
         <v>81500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>95000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>112400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>125200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>135200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-117800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-106900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +4032,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4085,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-14100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-10900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-11400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-8400</v>
       </c>
       <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-8500</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4221,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,22 +4232,22 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3873,8 +4270,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4323,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4376,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4429,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4482,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4535,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-14000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-15400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-14300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-10700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-11400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-7800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,20 +4613,22 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,11 +4641,11 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4221,8 +4662,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4715,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,26 +4768,32 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F94" s="3">
         <v>4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>39400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>10300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4347,11 +4806,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4362,8 +4821,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4846,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4895,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4948,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5001,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,34 +5054,40 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>68400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>84200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>8000</v>
@@ -4605,19 +5096,25 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>11000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5160,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>24000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-94300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>57100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>76400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
